--- a/Companies/Refineries/Bharat Petroleum Corporation Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
+++ b/Companies/Refineries/Bharat Petroleum Corporation Ltd/Pruned_Excel/5_Sep18_Sep19.xlsx
@@ -55,13 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +439,6 @@
     <col width="11" customWidth="1" min="4" max="4"/>
     <col width="11" customWidth="1" min="5" max="5"/>
     <col width="11" customWidth="1" min="6" max="6"/>
-    <col width="2" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="19" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -456,43 +449,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Sep '18</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Dec '18</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mar '19</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Jun '19</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Sep '19</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Jun '19</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Mar '19</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Dec '18</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Sep '18</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr"/>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Max</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Min</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Avg</t>
         </is>
       </c>
     </row>
@@ -504,37 +481,28 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>72,291.82</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>79,203.11</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>73,990.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>76,317.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>64,340.78</t>
         </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>76,317.94</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>73,990.42</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79,203.11</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>72,291.82</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>79203.11</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>64340.78</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>73228.814</v>
       </c>
     </row>
     <row r="3">
@@ -545,37 +513,28 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>72,291.82</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>79,203.11</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>73,990.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76,317.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>64,340.78</t>
         </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>76,317.94</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>73,990.42</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79,203.11</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>72,291.82</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="n">
-        <v>79203.11</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>64340.78</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>73228.814</v>
       </c>
     </row>
     <row r="4"/>
@@ -594,37 +553,28 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>30,968.44</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>30,998.99</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28,763.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>28,801.63</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>27,252.22</t>
         </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>28,801.63</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>28,763.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>30,998.99</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>30,968.44</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="n">
-        <v>30998.99</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>27252.22</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>29356.912</v>
       </c>
     </row>
     <row r="7">
@@ -635,37 +585,28 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>35,649.35</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>38,620.54</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36,765.46</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>38,868.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>32,415.66</t>
         </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>38,868.37</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>36,765.46</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>38,620.54</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>35,649.35</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="n">
-        <v>38868.37</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>32415.66</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>36463.876</v>
       </c>
     </row>
     <row r="8">
@@ -676,37 +617,28 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>-2,524.50</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>4,654.13</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>-1,528.46</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1,611.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>-2,846.90</t>
         </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>1,611.56</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>-1,528.46</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>4,654.13</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-2,524.50</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="n">
-        <v>4654.13</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>-2846.9</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>-126.834</v>
       </c>
     </row>
     <row r="9">
@@ -717,37 +649,28 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>950.31</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>801.95</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1,036.86</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>944.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>922.39</t>
         </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>944.87</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1,036.86</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>801.95</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>950.31</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="n">
-        <v>1036.86</v>
-      </c>
-      <c r="I9" s="2" t="n">
-        <v>801.95</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>931.2760000000001</v>
       </c>
     </row>
     <row r="10">
@@ -758,37 +681,28 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>757.10</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>778.14</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>914.88</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>914.10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>952.26</t>
         </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>914.10</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>914.88</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>778.14</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>757.10</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="n">
-        <v>952.26</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>757.1</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>863.2959999999999</v>
       </c>
     </row>
     <row r="11">
@@ -799,37 +713,28 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>4,828.78</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>3,355.87</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4,148.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>3,911.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>4,222.50</t>
         </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3,911.66</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>4,148.29</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>3,355.87</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4,828.78</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="n">
-        <v>4828.78</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>3355.87</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>4093.42</v>
       </c>
     </row>
     <row r="12">
@@ -840,37 +745,28 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>1,662.34</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-6.51</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3,890.11</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1,265.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>1,422.65</t>
         </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>1,265.75</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>3,890.11</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>-6.51</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1,662.34</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="n">
-        <v>3890.11</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>-6.51</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>1646.868</v>
       </c>
     </row>
     <row r="13">
@@ -881,37 +777,28 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>538.01</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>932.92</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1,057.61</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>538.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>871.28</t>
         </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>538.45</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>1,057.61</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>932.92</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>538.01</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="n">
-        <v>1057.61</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>538.01</v>
-      </c>
-      <c r="J13" s="2" t="n">
-        <v>787.654</v>
       </c>
     </row>
     <row r="14">
@@ -922,37 +809,28 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>2,200.35</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>926.41</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4,947.72</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1,804.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>2,293.93</t>
         </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1,804.20</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4,947.72</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>926.41</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2,200.35</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="n">
-        <v>4947.72</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>926.41</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>2434.522</v>
       </c>
     </row>
     <row r="15">
@@ -963,37 +841,28 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>327.64</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>336.90</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>352.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>452.42</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>638.81</t>
         </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>452.42</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>352.58</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>336.90</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>327.64</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="n">
-        <v>638.8099999999999</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>327.64</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>421.67</v>
       </c>
     </row>
     <row r="16">
@@ -1004,37 +873,28 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>1,872.71</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>589.51</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4,595.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1,351.78</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>1,655.12</t>
         </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>1,351.78</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4,595.14</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>589.51</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1,872.71</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="n">
-        <v>4595.14</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>589.51</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>2012.852</v>
       </c>
     </row>
     <row r="17">
@@ -1045,37 +905,28 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>1,872.71</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>589.51</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4,595.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1,351.78</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>1,655.12</t>
         </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>1,351.78</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4,595.14</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>589.51</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>1,872.71</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="n">
-        <v>4595.14</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>589.51</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>2012.852</v>
       </c>
     </row>
     <row r="18">
@@ -1086,37 +937,28 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>654.00</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1,470.23</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>276.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
           <t>-53.33</t>
         </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>276.66</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1,470.23</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>654.00</t>
-        </is>
-      </c>
-      <c r="H18" s="2" t="n">
-        <v>1470.23</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>-53.33</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>488.386</v>
       </c>
     </row>
     <row r="19">
@@ -1127,37 +969,28 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>1,218.71</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>495.14</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3,124.91</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1,075.12</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>1,708.45</t>
         </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>1,075.12</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3,124.91</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>495.14</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1,218.71</t>
-        </is>
-      </c>
-      <c r="H19" s="2" t="n">
-        <v>3124.91</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>495.14</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>1524.466</v>
       </c>
     </row>
     <row r="20">
@@ -1168,37 +1001,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>1,218.71</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>495.14</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>3,124.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1,075.12</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>1,708.45</t>
         </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>1,075.12</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>3,124.91</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>495.14</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1,218.71</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="n">
-        <v>3124.91</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>495.14</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>1524.466</v>
       </c>
     </row>
     <row r="21">
@@ -1231,15 +1055,6 @@
         <is>
           <t>1,966.88</t>
         </is>
-      </c>
-      <c r="H21" s="2" t="n">
-        <v>1966.88</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>1966.88</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>1966.88</v>
       </c>
     </row>
     <row r="22"/>
@@ -1258,37 +1073,28 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
           <t>8.69</t>
         </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>15.89</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>7.754</v>
       </c>
     </row>
     <row r="25">
@@ -1299,37 +1105,28 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
           <t>8.69</t>
         </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>15.89</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>7.754</v>
       </c>
     </row>
     <row r="26"/>
@@ -1348,37 +1145,28 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
           <t>8.69</t>
         </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>15.89</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="H28" s="2" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>7.754</v>
       </c>
     </row>
     <row r="29">
@@ -1389,37 +1177,28 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
           <t>8.69</t>
         </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>15.89</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>2.52</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>6.20</t>
-        </is>
-      </c>
-      <c r="H29" s="2" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>7.754</v>
       </c>
     </row>
     <row r="30"/>
